--- a/その他資料/講座コンテンツ内容/各種講座.xlsx
+++ b/その他資料/講座コンテンツ内容/各種講座.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="13395" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="13395" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="photoshop" sheetId="1" r:id="rId1"/>
@@ -6502,6 +6502,7 @@
         <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
               <a:solidFill>
@@ -6511,7 +6512,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>　　プログラミング 実 績</a:t>
+            <a:t>プログラミング </a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800">
             <a:solidFill>
@@ -6669,7 +6670,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>プログラミング実績とは？</a:t>
+            <a:t>プログラミングとは？</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -11594,13 +11595,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>29766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
       <xdr:row>370</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
+      <xdr:rowOff>79462</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11617,7 +11618,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="0" y="29766"/>
           <a:ext cx="20320000" cy="63486196"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11630,15 +11631,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>512535</xdr:colOff>
+      <xdr:colOff>512534</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>92571</xdr:rowOff>
+      <xdr:rowOff>102096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>645885</xdr:colOff>
+      <xdr:colOff>647699</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>122012</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11647,8 +11648,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7370535" y="11065371"/>
-          <a:ext cx="2190750" cy="1229591"/>
+          <a:off x="7370534" y="11074896"/>
+          <a:ext cx="2192565" cy="1259979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11690,7 +11691,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -11698,10 +11699,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>自分のわからない所</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:t>講師と一緒に、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -11709,10 +11710,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>だけを集中的に勉強出来ます</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:t>自分の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -11720,8 +11721,38 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
+            <a:t>分からない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>所</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>だけを、集中的に勉強出来ます！</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -11750,15 +11781,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>194128</xdr:colOff>
+      <xdr:colOff>165553</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>86673</xdr:rowOff>
+      <xdr:rowOff>115248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>327478</xdr:colOff>
+      <xdr:colOff>298903</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>116114</xdr:rowOff>
+      <xdr:rowOff>144689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11767,7 +11798,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9795328" y="11059473"/>
+          <a:off x="9766753" y="11088048"/>
           <a:ext cx="2190750" cy="1229591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12157,15 +12188,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>538646</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
+      <xdr:colOff>669726</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>29765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>310046</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>110435</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12174,8 +12205,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7440820" y="13500652"/>
-          <a:ext cx="5983356" cy="2512392"/>
+          <a:off x="7527726" y="14431565"/>
+          <a:ext cx="5812520" cy="1894285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12200,70 +12231,122 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>初歩的な事から効率的な操作まで、分からない事をどんどん聞くことができますので、初心者からでも安心して受講していただけます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>仕事に使えるオフィスソフトも学ぶことができますので、主婦の方からビジネスマン、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>OL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>さんまで幅広く対応している人気の講座です！</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
             <a:t>※</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>わからないところだけ教えて！</a:t>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>自分の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>分からない所だけ知りたい！</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>効率の良いやり方が分からない</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>そんな方は、是非ウィランズへ！！</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
           </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>自分のわからない所だけを聞けます。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>効率の良いやり方がわからない！</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>今のやり方でも出来てるけど、時間が掛かるのでもっと効率の良いやり方を一緒に考えます。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>できない仕事があり、困っている</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>どうしても出来ないものがあり困っているので一緒にやって欲しい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>試験対策でわからない所だけ</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>殆ど判るんだけど、試験対策で判らないところが少しだけある場合にご利用下さい。</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12272,15 +12355,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>511097</xdr:colOff>
+      <xdr:colOff>555745</xdr:colOff>
       <xdr:row>171</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
+      <xdr:rowOff>148828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>139390</xdr:colOff>
+      <xdr:colOff>119063</xdr:colOff>
       <xdr:row>176</xdr:row>
-      <xdr:rowOff>139390</xdr:rowOff>
+      <xdr:rowOff>44649</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12289,8 +12372,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9426497" y="29449395"/>
-          <a:ext cx="2371493" cy="865195"/>
+          <a:off x="9455667" y="30688359"/>
+          <a:ext cx="2301755" cy="788790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12315,7 +12398,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
             <a:t>一般的なオフィスソフトや年賀状ソフト</a:t>
           </a:r>
         </a:p>
@@ -12325,26 +12408,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546361</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>161775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>494226</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>3546</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>86444</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>110756</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12152826" y="26749746"/>
-          <a:ext cx="963818" cy="621560"/>
+          <a:off x="9461761" y="32394375"/>
+          <a:ext cx="2306377" cy="1955156"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12368,8 +12451,49 @@
         <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ワード</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>エクセル</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>パワーポイント</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>アクセス（マクロ・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>VBA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>除く）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>年賀状ソフト</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12378,25 +12502,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>496851</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>158602</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>55378</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>110756</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+      <xdr:colOff>197050</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>167877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>446485</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12155451" y="26733352"/>
-          <a:ext cx="930127" cy="466504"/>
+          <a:off x="11835409" y="33743502"/>
+          <a:ext cx="2303264" cy="2034779"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12420,279 +12544,6 @@
         <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>508397</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>158134</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>641303</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>67535</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12166997" y="26732884"/>
-          <a:ext cx="818706" cy="595201"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>508247</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>100428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>117722</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>16064</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9423647" y="31132878"/>
-          <a:ext cx="2352675" cy="4544786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>177722</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>101799</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>492047</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>13287</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11836322" y="31134249"/>
-          <a:ext cx="2371725" cy="4540638"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>526120</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>42714</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>135595</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>159348</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9441520" y="35704314"/>
-          <a:ext cx="2352675" cy="2516934"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>一般的によく使用するオフィスソフト　ワード・エクセル・パワーポイント・アクセス（マクロ・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>VBA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>除く）や、年賀状ソフト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11811000" y="35680650"/>
-          <a:ext cx="2362200" cy="2505075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
             <a:t>ホームページビルダーを使ったホームページ作成について、</a:t>
@@ -12713,77 +12564,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>391337</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>23411</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38912</xdr:colOff>
-      <xdr:row>257</xdr:row>
-      <xdr:rowOff>122435</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9306737" y="42200111"/>
-          <a:ext cx="2390775" cy="1984974"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>サーティファイ主催の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>Flash</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>クリエイター能力認定試験合格を目指した資格対策講座です。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:colOff>534589</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>100607</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12792,8 +12581,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9404747" y="39945469"/>
-          <a:ext cx="7159228" cy="1574006"/>
+          <a:off x="9449989" y="39321581"/>
+          <a:ext cx="7190186" cy="1412676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12846,15 +12635,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>左記コースには、別途入会金</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>10,500</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>円が必要です。</a:t>
+            <a:t>上記コースには、別途入会金１０，５００円が必要です。</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
@@ -12867,7 +12648,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>日・月・祝と夏季・年末年始休業は対応外です。</a:t>
+            <a:t>日・月・祝と夏季・年末年始休暇は対応外です。</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -12881,15 +12662,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>548506</xdr:colOff>
+      <xdr:colOff>518740</xdr:colOff>
       <xdr:row>171</xdr:row>
-      <xdr:rowOff>58079</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>116158</xdr:colOff>
+      <xdr:colOff>178594</xdr:colOff>
       <xdr:row>176</xdr:row>
-      <xdr:rowOff>133945</xdr:rowOff>
+      <xdr:rowOff>44648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12898,8 +12679,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14240694" y="30597610"/>
-          <a:ext cx="2306089" cy="968835"/>
+          <a:off x="14210928" y="30658594"/>
+          <a:ext cx="2398291" cy="818554"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12924,7 +12705,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
             <a:t>デジカメ・スキャナー等の周辺機器</a:t>
           </a:r>
         </a:p>
@@ -13246,6 +13027,7 @@
         <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
               <a:solidFill>
@@ -13255,7 +13037,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>　　個人レッスン</a:t>
+            <a:t>個人レッスン</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800">
             <a:solidFill>
@@ -13563,81 +13345,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>69696</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>441404</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>58080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11728296" y="40805101"/>
-          <a:ext cx="2429108" cy="743879"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>Flash</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>スクリプト</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>プログラミング</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -13846,273 +13553,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>81311</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>69695</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>470774</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11739911" y="41560595"/>
-          <a:ext cx="2446863" cy="616106"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>126.000</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>円（税込）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>470775</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>86845</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>167181</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14186775" y="41577745"/>
-          <a:ext cx="2439606" cy="598955"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="1" cap="all">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>350,000</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1600" b="1" cap="all">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>円（税込</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1" cap="all">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>142328</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>11943</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>471772</xdr:colOff>
-      <xdr:row>257</xdr:row>
-      <xdr:rowOff>108241</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11800928" y="42188643"/>
-          <a:ext cx="2386844" cy="1982248"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>Flash</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>スクリプトを使い表現力を大幅に広げ、さまざまなフラッシュアプリケーション作成を習得していきます。スクリプトでしかできないテクニックを学んでいただけます。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>464634</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>162622</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>69695</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14180634" y="40805099"/>
-          <a:ext cx="2441188" cy="755496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>Web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>デザイナー</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -14165,26 +13605,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>199138</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>133946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>482495</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>174680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>153276</xdr:colOff>
-      <xdr:row>257</xdr:row>
-      <xdr:rowOff>87587</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>37367</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14198495" y="42179930"/>
-          <a:ext cx="2413981" cy="1970307"/>
+          <a:off x="11837497" y="30673477"/>
+          <a:ext cx="2301175" cy="796390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14208,262 +13648,10 @@
         <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>イラストレーター・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>イラストレーター・フォトショップ・フラッシュ・ドリームウィーバーを学習することで即戦力のスキルを身につけます。また就転職に役立つ卒業作品を制作します。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228903</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>88549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>492243</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>111781</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11887503" y="29406499"/>
-          <a:ext cx="2320740" cy="880482"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
             <a:t>ホームページビルダー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>406555</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>11615</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>58080</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>34847</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9321955" y="40816715"/>
-          <a:ext cx="2394725" cy="709032"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
-            <a:t>Flash</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>クリエイター</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>能力試験対策</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>426983</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>34847</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>54742</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>1525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9342383" y="41525747"/>
-          <a:ext cx="2370959" cy="652478"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>32.000</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>円</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>税込</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14923,190 +14111,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Text Box 7"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="22631400" y="41490900"/>
-          <a:ext cx="666750" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>制作のプロフェッショナルツールであるドリームウィーバーを使用して</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>を製作する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Text Box 10"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="22631400" y="41490900"/>
-          <a:ext cx="666750" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>制作のプロフェッショナルツールであるドリームウィーバーを使用して</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>を製作する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -15114,7 +14118,7 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>10948</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3509487" cy="275717"/>
+    <xdr:ext cx="3745384" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
@@ -15122,8 +14126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7625236" y="8293557"/>
-          <a:ext cx="3509487" cy="275717"/>
+          <a:off x="7576645" y="8583448"/>
+          <a:ext cx="3745384" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15152,7 +14156,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>ウィランズパソコンスクールは頑張るあなたを応援します</a:t>
+            <a:t>ウィランズパソコンスクールは、頑張るあなたを応援します！</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
@@ -15162,318 +14166,26 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Text Box 11"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="22631400" y="41490900"/>
-          <a:ext cx="666750" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>機動力ある操作性を備えた高機能ソフトであり複雑な</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>HTML</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>タグを記述しなくても効率よく</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ページを制作することができます。また多機能でありながら柔軟なレイアウト機能や高度なサイト管理機能など多機能でありながら扱いやすいツールとして認知され</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>デザイナーなどを中心に広く普及しています。ホームページビルダー等の制作ツールで満足できない方、または初心者のかたでもプロフェッショナルを目指す方に安心して学べる講座となっています。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Text Box 12"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="22631400" y="41490900"/>
-          <a:ext cx="666750" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>機動力ある操作性を備えた高機能ソフトであり複雑な</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>HTML</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>タグを記述しなくても効率よく</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ページを制作することができます。また多機能でありながら柔軟なレイアウト機能や高度なサイト管理機能など多機能でありながら扱いやすいツールとして認知され</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>デザイナーなどを中心に広く普及しています。ホームページビルダー等の制作ツールで満足できない方、または初心者のかたでもプロフェッショナルを目指す方に安心して学べる講座となっています。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>87586</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>54741</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>547415</xdr:colOff>
-      <xdr:row>258</xdr:row>
-      <xdr:rowOff>162979</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="正方形/長方形 57"/>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>529809</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>102260</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>32314</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17918386" y="42917241"/>
-          <a:ext cx="1145629" cy="1479838"/>
+          <a:off x="9429731" y="35837812"/>
+          <a:ext cx="2310888" cy="806221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15497,183 +14209,27 @@
         <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>433257</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>127774</xdr:rowOff>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>ネットワークやインターネット設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514363</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>197469</xdr:colOff>
-      <xdr:row>257</xdr:row>
-      <xdr:rowOff>92927</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9348657" y="40761424"/>
-          <a:ext cx="7308012" cy="3394153"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>569176</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>151006</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>136828</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>138043</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="正方形/長方形 59"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14285176" y="31183456"/>
-          <a:ext cx="2310852" cy="4444737"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>351215</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>55218</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>47807</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>2549</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="正方形/長方形 60"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16810415" y="29373168"/>
-          <a:ext cx="2439792" cy="804581"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
-            <a:t>ネットワークやインターネット設定</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>499481</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>58080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>67133</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>139390</xdr:rowOff>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15682,8 +14238,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14215481" y="35719680"/>
-          <a:ext cx="2310852" cy="2481610"/>
+          <a:off x="14206551" y="33754219"/>
+          <a:ext cx="2402668" cy="2024063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15883,26 +14439,95 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>151848</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>110434</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>538658</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>149469</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>188635</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>133944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>446609</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>28686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19354248" y="30285634"/>
-          <a:ext cx="2444210" cy="724835"/>
+          <a:off x="11826994" y="35852694"/>
+          <a:ext cx="2311803" cy="787711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>AccessVBA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>等の</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>簡易プログラミング</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>268908</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>56322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>655718</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34495408" y="27043822"/>
+          <a:ext cx="2482310" cy="2249004"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15944,219 +14569,6 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>受講料　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>220,000</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>円（税込）</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>有効期間</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>12</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ヶ月</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>69574</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>55769</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>621196</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>13804</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19271974" y="29373719"/>
-          <a:ext cx="2609022" cy="815285"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
-            <a:t>AccessVBA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-            <a:t>等の</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-            <a:t>簡易なもの</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>268908</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>56322</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>655718</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="正方形/長方形 67"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="34495408" y="27043822"/>
-          <a:ext cx="2482310" cy="2249004"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
             <a:t>VisualBasic</a:t>
           </a:r>
@@ -16203,214 +14615,6 @@
         <a:xfrm>
           <a:off x="34809319" y="25049646"/>
           <a:ext cx="2482310" cy="4084430"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>195470</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>140252</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>582280</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>133945</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="正方形/長方形 69"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19364533" y="37287752"/>
-          <a:ext cx="2440638" cy="2494006"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>182218</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>2760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>569028</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>138043</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="正方形/長方形 70"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19384618" y="31206660"/>
-          <a:ext cx="2444210" cy="4421533"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>334618</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>44727</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>31210</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="正方形/長方形 71"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16793818" y="35706327"/>
-          <a:ext cx="2439792" cy="2479812"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>307562</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>17669</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>4154</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="正方形/長方形 72"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16766762" y="31221569"/>
-          <a:ext cx="2439792" cy="4392820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17107,26 +15311,293 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>386522</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>96631</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>662608</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>151849</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Text Box 8"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="30988000" y="23780750"/>
+          <a:ext cx="7810500" cy="7874000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>551526</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>117400</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Text Box 9"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9451448" y="38873907"/>
+          <a:ext cx="2304311" cy="2024062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>家庭内</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>LAN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>の設定やインターネットの設定</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>但し、プロバイダーの契約、パソコンや周辺機器の設置はお客様側でお願い致します。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>その他、設定等は見積り致します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>177443</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>442354</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>163711</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Text Box 10"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11836043" y="37323712"/>
+          <a:ext cx="2322311" cy="1930599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>エクセル、アクセスの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>VBA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>設定が必要なもの。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>但し、システム設計が必要な物については、見積り致します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>357533</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>11042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>641903</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>59358</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16845722" y="30271831"/>
-          <a:ext cx="2333486" cy="741018"/>
+          <a:off x="33187033" y="28109792"/>
+          <a:ext cx="2379870" cy="683316"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17173,7 +15644,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>220,000</a:t>
+            <a:t>220,00</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
@@ -17184,11 +15655,11 @@
           </a:br>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>有効期間</a:t>
+            <a:t>有期間</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>12</a:t>
+            <a:t>6</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
@@ -17201,269 +15672,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="Text Box 8"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="30988000" y="23780750"/>
-          <a:ext cx="7810500" cy="7874000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>179455</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>314740</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>151847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>599109</xdr:colOff>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>41413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>69020</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="Text Box 9"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16610080" y="37188913"/>
-          <a:ext cx="2628003" cy="2577962"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>家庭内</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>LAN</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>の設定やインターネットの設定</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>但し、プロバイダーの契約済み、パソコンや周辺機器の設置はお客様のほうでお願い致します。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>その他、設定等は見積り致します。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>136965</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>162632</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>606313</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>133945</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="Text Box 10"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19306028" y="37131538"/>
-          <a:ext cx="2523176" cy="2650220"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>エクセルやアクセスの</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>VBA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>設定が必要なもの、但しシステム設計が必要な物については、見積り対応いたします。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>357533</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>11042</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>641903</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>59358</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="正方形/長方形 88"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="33187033" y="28109792"/>
-          <a:ext cx="2379870" cy="683316"/>
+          <a:off x="34541240" y="27615597"/>
+          <a:ext cx="2379869" cy="683316"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17510,7 +15738,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>220,00</a:t>
+            <a:t>126,000</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
@@ -17521,7 +15749,7 @@
           </a:br>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>有期間</a:t>
+            <a:t>有効期間</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -17538,26 +15766,323 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>40033</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>19323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>12424</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>19325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Text Box 12"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="34965033" y="27483073"/>
+          <a:ext cx="1369391" cy="952502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>314740</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>151847</xdr:rowOff>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Text Box 13"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="34575750" y="27082750"/>
+          <a:ext cx="1333500" cy="920750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>349249</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>154608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>599109</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="正方形/長方形 89"/>
+      <xdr:colOff>611533</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>78684</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Text Box 14"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="34575749" y="26665858"/>
+          <a:ext cx="2357784" cy="2146576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>JAVA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>プログラミングの基礎をを学んでいただきます。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>511098</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>108426</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="500933" cy="352941"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="テキスト ボックス 94"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9411020" y="31540926"/>
+          <a:ext cx="500933" cy="352941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>663498</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>82232</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="500933" cy="352941"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="テキスト ボックス 95"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563420" y="31693326"/>
+          <a:ext cx="500933" cy="352941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>535782</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>104181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>96548</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>74415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="正方形/長方形 96"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34541240" y="27615597"/>
-          <a:ext cx="2379869" cy="683316"/>
+          <a:off x="9435704" y="36715900"/>
+          <a:ext cx="2299203" cy="2113359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17581,7 +16106,769 @@
         <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>教室での受講 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>１時間￥５，２５０（税込）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>事業所への訪問</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>１時間￥９，６００（税込）</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>交通費別途</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>524469</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>122634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>175993</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>104180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14216657" y="31555134"/>
+          <a:ext cx="2389961" cy="2124671"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>教室での受講 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>１時間￥５，２５０（税込）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>事業所への訪問</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>１時間￥９，６００（税込）</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>交通費別途</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200622</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>111324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>104180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="正方形/長方形 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11838981" y="31543824"/>
+          <a:ext cx="2299691" cy="2135981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>教室での受講 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>１時間￥５，２５０（税込）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>事業所への訪問</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>１時間￥９，６００（税込）</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>交通費別途</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546498</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>104180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="正方形/長方形 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9446420" y="31532512"/>
+          <a:ext cx="2311002" cy="2147293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>教室での受講</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t> １時間￥５，２５０（税込）</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>事業所への訪問　</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>１時間￥９，６００（税込）</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>交通費別途</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>178595</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>104178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>446483</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="正方形/長方形 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11816954" y="36715897"/>
+          <a:ext cx="2321717" cy="2098477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>教室での受講 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>１時間￥５，２５０（税込）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>事業所への訪問</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>１時間￥９，６００（税込）</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>交通費別途</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>654843</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>461367</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>104180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7500937" y="31551562"/>
+          <a:ext cx="1860352" cy="2128243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>料金</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>654843</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>163710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>461367</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>74414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7500937" y="33739335"/>
+          <a:ext cx="1860352" cy="2053829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>講座説明</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>669726</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>104179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="正方形/長方形 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7515820" y="36715898"/>
+          <a:ext cx="1860352" cy="2098477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>料金</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>669726</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7515820" y="38873906"/>
+          <a:ext cx="1860352" cy="2024064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -17599,356 +16886,44 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>受講料　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>126,000</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>円（税込）</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>有効期間</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>6</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ヶ月</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>40033</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>19323</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>12424</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>19325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="Text Box 12"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="34965033" y="27483073"/>
-          <a:ext cx="1369391" cy="952502"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Text Box 13"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="34575750" y="27082750"/>
-          <a:ext cx="1333500" cy="920750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>349249</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>154608</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>611533</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>78684</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Text Box 14"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="34575749" y="26665858"/>
-          <a:ext cx="2357784" cy="2146576"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>JAVA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>プログラミングの基礎をを学んでいただきます。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>講座説明</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>511098</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>108426</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="500933" cy="352941"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="テキスト ボックス 94"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9411020" y="31540926"/>
-          <a:ext cx="500933" cy="352941"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>663498</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>82232</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="500933" cy="352941"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="テキスト ボックス 95"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9563420" y="31693326"/>
-          <a:ext cx="500933" cy="352941"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>401836</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>133946</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>53359</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>70168</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="正方形/長方形 96"/>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>104179</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="正方形/長方形 107"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16832461" y="31566446"/>
-          <a:ext cx="2389961" cy="2615128"/>
+          <a:off x="7515225" y="39321581"/>
+          <a:ext cx="1876425" cy="1416248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17972,39 +16947,10 @@
         <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>教室での受講 １時間　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>5,250</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>円（税込）</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>事業所への訪問　　１時間　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>9,600</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>円（税込）</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>　交通費別途</a:t>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>備考</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18014,25 +16960,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>598883</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>137517</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>250407</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>73739</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="正方形/長方形 108"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14291071" y="31570017"/>
-          <a:ext cx="2389961" cy="2615128"/>
+          <a:off x="14230350" y="34385250"/>
+          <a:ext cx="2409825" cy="4857750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18056,67 +17002,35 @@
         <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>教室での受講 １時間　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>5,250</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>円（税込）</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>事業所への訪問　　１時間　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>9,600</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>円（税込）</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>　交通費別途</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>200621</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>170855</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>536753</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>107077</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="正方形/長方形 98"/>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="正方形/長方形 109"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11838980" y="31603355"/>
-          <a:ext cx="2389961" cy="2615128"/>
+          <a:off x="7524750" y="40824150"/>
+          <a:ext cx="9124950" cy="3286125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18140,208 +17054,20 @@
         <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>教室での受講 １時間　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>5,250</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>円（税込）</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>事業所への訪問　　１時間　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>9,600</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>円（税込）</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>　交通費別途</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>561381</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>144661</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>89297</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>80883</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="正方形/長方形 99"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9461303" y="31577161"/>
-          <a:ext cx="2266353" cy="2615128"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>教室での受講 １時間　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>5,250</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>円（税込）</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>事業所への訪問　　１時間　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>9,600</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>円（税込）</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>　交通費別途</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>163711</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>133945</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>44648</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>89297</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="正方形/長方形 100"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19332774" y="31566445"/>
-          <a:ext cx="2619374" cy="2634258"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>教室での受講 　１時間　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>8.000</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>円（税込）</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>事業所への訪問　　１時間　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>12.0000</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>円（税込）</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>　交通費別途</a:t>
-          </a:r>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -56966,7 +55692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="O165" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="A63" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="AS226" sqref="AS226"/>
     </sheetView>
   </sheetViews>
@@ -56991,8 +55717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="L171" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="AJ203" sqref="AJ203"/>
+    <sheetView tabSelected="1" topLeftCell="K41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG199" sqref="AG199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -57540,7 +56266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F157" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView topLeftCell="E157" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="T157" sqref="T154:T157"/>
     </sheetView>
   </sheetViews>
